--- a/Interrogaciones/src/instancia_datos/listado_cursos.xlsx
+++ b/Interrogaciones/src/instancia_datos/listado_cursos.xlsx
@@ -19,580 +19,580 @@
     <t>cursos</t>
   </si>
   <si>
+    <t>ICT2223-1</t>
+  </si>
+  <si>
+    <t>ICS2523-4</t>
+  </si>
+  <si>
+    <t>ICH2114-1</t>
+  </si>
+  <si>
+    <t>IMM2043-1</t>
+  </si>
+  <si>
+    <t>ICE3783-1</t>
+  </si>
+  <si>
+    <t>ICH3341-1</t>
+  </si>
+  <si>
+    <t>IIQ3752-1</t>
+  </si>
+  <si>
+    <t>ICE2413-1</t>
+  </si>
+  <si>
+    <t>IIC2133-2</t>
+  </si>
+  <si>
+    <t>IEE1533-1</t>
+  </si>
+  <si>
+    <t>IIC2133-1</t>
+  </si>
+  <si>
+    <t>IIQ2043-1</t>
+  </si>
+  <si>
+    <t>ICE3623-1</t>
+  </si>
+  <si>
+    <t>ICT3333-1</t>
+  </si>
+  <si>
+    <t>ICM3323-1</t>
+  </si>
+  <si>
+    <t>IIC2133-3</t>
+  </si>
+  <si>
+    <t>IIQ3853-1</t>
+  </si>
+  <si>
+    <t>IBM2012-1</t>
+  </si>
+  <si>
+    <t>IIQ2313-1</t>
+  </si>
+  <si>
+    <t>ICM2403-1</t>
+  </si>
+  <si>
+    <t>IMM3503-1</t>
+  </si>
+  <si>
+    <t>IEE2113-1</t>
+  </si>
+  <si>
+    <t>IIC3633-1</t>
+  </si>
+  <si>
+    <t>ICS3143-1</t>
+  </si>
+  <si>
+    <t>IMM3313-1</t>
+  </si>
+  <si>
+    <t>ICS2123-4</t>
+  </si>
+  <si>
+    <t>IEE3794-1</t>
+  </si>
+  <si>
+    <t>ICH2304-1</t>
+  </si>
+  <si>
+    <t>IMM2013-1</t>
+  </si>
+  <si>
+    <t>ICE3543-1</t>
+  </si>
+  <si>
+    <t>ICC2204-1</t>
+  </si>
+  <si>
+    <t>IIC2143-2</t>
+  </si>
+  <si>
+    <t>ICM3233-1</t>
+  </si>
+  <si>
+    <t>IIQ3652-1</t>
+  </si>
+  <si>
+    <t>IIC2143-1</t>
+  </si>
+  <si>
+    <t>IEE3383-1</t>
+  </si>
+  <si>
+    <t>IBM2101-1</t>
+  </si>
+  <si>
+    <t>ICM2213-1</t>
+  </si>
+  <si>
+    <t>ICS2563-2</t>
+  </si>
+  <si>
+    <t>ICE2022-1</t>
+  </si>
+  <si>
+    <t>IIQ3651-1</t>
+  </si>
+  <si>
+    <t>ICH3710-1</t>
+  </si>
+  <si>
+    <t>ICS3413-1</t>
+  </si>
+  <si>
+    <t>ICT3283-1</t>
+  </si>
+  <si>
+    <t>ICH3712-1</t>
+  </si>
+  <si>
+    <t>ICS3313-1</t>
+  </si>
+  <si>
+    <t>IIC2733-1</t>
+  </si>
+  <si>
+    <t>IMM2053-1</t>
+  </si>
+  <si>
+    <t>IEE2313-1</t>
+  </si>
+  <si>
+    <t>ICM2022-1</t>
+  </si>
+  <si>
+    <t>ICE2029-1</t>
+  </si>
+  <si>
+    <t>ICH2394-1</t>
+  </si>
+  <si>
+    <t>ICC2105-1</t>
+  </si>
+  <si>
+    <t>IIQ2133-1</t>
+  </si>
+  <si>
+    <t>IIC2333-2</t>
+  </si>
+  <si>
+    <t>IIC2333-1</t>
+  </si>
+  <si>
+    <t>IEE2683-2</t>
+  </si>
+  <si>
+    <t>IEE2183-1</t>
+  </si>
+  <si>
+    <t>IEE2473-1</t>
+  </si>
+  <si>
+    <t>ICE2024-1</t>
+  </si>
+  <si>
+    <t>IEE2683-1</t>
+  </si>
+  <si>
+    <t>IMT3810-1</t>
+  </si>
+  <si>
+    <t>ICS2121-1</t>
+  </si>
+  <si>
+    <t>IIC2113-1</t>
+  </si>
+  <si>
+    <t>ICH2604-1</t>
+  </si>
+  <si>
+    <t>ICM3255-1</t>
+  </si>
+  <si>
+    <t>ICC2105-2</t>
+  </si>
+  <si>
+    <t>ICS2523-3</t>
+  </si>
+  <si>
+    <t>IEE2544-1</t>
+  </si>
+  <si>
+    <t>IMT3120-1</t>
+  </si>
+  <si>
+    <t>ICE2604-1</t>
+  </si>
+  <si>
+    <t>IMT2565-1</t>
+  </si>
+  <si>
+    <t>IIC3533-1</t>
+  </si>
+  <si>
+    <t>ICM2223-1</t>
+  </si>
+  <si>
+    <t>IIC2143-3</t>
+  </si>
+  <si>
+    <t>ICE2683-1</t>
+  </si>
+  <si>
+    <t>IEE3313-1</t>
+  </si>
+  <si>
+    <t>ICM3252-1</t>
+  </si>
+  <si>
+    <t>ICE3743-1</t>
+  </si>
+  <si>
+    <t>ICT3354-1</t>
+  </si>
+  <si>
+    <t>IIQ3843-1</t>
+  </si>
+  <si>
+    <t>IRB2001-1</t>
+  </si>
+  <si>
+    <t>IMM1003-1</t>
+  </si>
+  <si>
+    <t>IIQ2603-1</t>
+  </si>
+  <si>
+    <t>IEE2273-2</t>
+  </si>
+  <si>
+    <t>IIC2764-1</t>
+  </si>
+  <si>
+    <t>ICH3010-1</t>
+  </si>
+  <si>
+    <t>ICC2414-1</t>
+  </si>
+  <si>
+    <t>ING102G-1</t>
+  </si>
+  <si>
+    <t>ICM3382-1</t>
+  </si>
+  <si>
+    <t>ICH2304-2</t>
+  </si>
+  <si>
+    <t>ICE3433-1</t>
+  </si>
+  <si>
+    <t>ICC2304-1</t>
+  </si>
+  <si>
+    <t>ICE2135-1</t>
+  </si>
+  <si>
+    <t>IMT2112-1</t>
+  </si>
+  <si>
+    <t>ICE2025-1</t>
+  </si>
+  <si>
+    <t>ICT3435-1</t>
+  </si>
+  <si>
+    <t>IEE3243-1</t>
+  </si>
+  <si>
+    <t>IEE2713-1</t>
+  </si>
+  <si>
+    <t>ICS2123-3</t>
+  </si>
+  <si>
+    <t>IIC2713-3</t>
+  </si>
+  <si>
+    <t>IIC2713-2</t>
+  </si>
+  <si>
+    <t>ICC3244-1</t>
+  </si>
+  <si>
+    <t>ICM3920-1</t>
+  </si>
+  <si>
+    <t>IIQ3863-1</t>
+  </si>
+  <si>
+    <t>IEE3682-1</t>
+  </si>
+  <si>
+    <t>ICM2803-1</t>
+  </si>
+  <si>
+    <t>ICE2623-1</t>
+  </si>
+  <si>
+    <t>ICH3390-1</t>
+  </si>
+  <si>
+    <t>ICH3564-1</t>
+  </si>
+  <si>
+    <t>ICH3384-1</t>
+  </si>
+  <si>
+    <t>IMM2023-1</t>
+  </si>
+  <si>
+    <t>ICT2904-1</t>
+  </si>
+  <si>
+    <t>ICE2614-1</t>
+  </si>
+  <si>
+    <t>ICS2563-1</t>
+  </si>
+  <si>
+    <t>ICH3800-1</t>
+  </si>
+  <si>
+    <t>ICC2424-1</t>
+  </si>
+  <si>
+    <t>ICS2123-1</t>
+  </si>
+  <si>
+    <t>IIQ2003-1</t>
+  </si>
+  <si>
+    <t>ICM3553-1</t>
+  </si>
+  <si>
+    <t>IIC2613-1</t>
+  </si>
+  <si>
+    <t>ICC2514-1</t>
+  </si>
+  <si>
+    <t>IMM3053-1</t>
+  </si>
+  <si>
+    <t>ICT3103-1</t>
+  </si>
+  <si>
+    <t>ICE3723-1</t>
+  </si>
+  <si>
+    <t>IEE2123-1</t>
+  </si>
+  <si>
+    <t>IEE2213-1</t>
+  </si>
+  <si>
+    <t>ICC3272-1</t>
+  </si>
+  <si>
+    <t>IIC2733-2</t>
+  </si>
+  <si>
+    <t>ICM2313-1</t>
+  </si>
+  <si>
+    <t>IEE3610-1</t>
+  </si>
+  <si>
+    <t>IEE3254-1</t>
+  </si>
+  <si>
+    <t>ICE2630-1</t>
+  </si>
+  <si>
+    <t>ICE2403-1</t>
+  </si>
+  <si>
+    <t>ICE2313-1</t>
+  </si>
+  <si>
+    <t>IEE2613-1</t>
+  </si>
+  <si>
+    <t>IEE2103-1</t>
+  </si>
+  <si>
+    <t>IEE2413-1</t>
+  </si>
+  <si>
+    <t>ICE2880-1</t>
+  </si>
+  <si>
+    <t>ICE2880-2</t>
+  </si>
+  <si>
+    <t>IIC3743-1</t>
+  </si>
+  <si>
+    <t>IEE2273-1</t>
+  </si>
+  <si>
+    <t>ING101G-1</t>
+  </si>
+  <si>
+    <t>ICM2028-1</t>
+  </si>
+  <si>
+    <t>ICM3253-1</t>
+  </si>
+  <si>
+    <t>IIC2283-1</t>
+  </si>
+  <si>
+    <t>IIC3675-1</t>
+  </si>
+  <si>
+    <t>ICE2114-1</t>
+  </si>
+  <si>
+    <t>IIC2173-1</t>
+  </si>
+  <si>
     <t>IIQ2633-1</t>
   </si>
   <si>
+    <t>ICT2233-1</t>
+  </si>
+  <si>
+    <t>IIC3113-2</t>
+  </si>
+  <si>
+    <t>IIQ223Q-1</t>
+  </si>
+  <si>
+    <t>IIC2713-1</t>
+  </si>
+  <si>
+    <t>ICS2123-2</t>
+  </si>
+  <si>
+    <t>IIC3113-1</t>
+  </si>
+  <si>
+    <t>ICC3125-1</t>
+  </si>
+  <si>
+    <t>IIC2113-2</t>
+  </si>
+  <si>
+    <t>ICE2006-1</t>
+  </si>
+  <si>
+    <t>ICE3243-1</t>
+  </si>
+  <si>
+    <t>IIQ2693-1</t>
+  </si>
+  <si>
+    <t>ICH3224-1</t>
+  </si>
+  <si>
     <t>ICH3124-1</t>
   </si>
   <si>
     <t>ICE3633-1</t>
   </si>
   <si>
-    <t>IMM3313-1</t>
+    <t>IIC2562-1</t>
   </si>
   <si>
     <t>ICH2103-1</t>
   </si>
   <si>
-    <t>IIC2562-1</t>
-  </si>
-  <si>
-    <t>ICH3224-1</t>
-  </si>
-  <si>
-    <t>ICE3243-1</t>
-  </si>
-  <si>
-    <t>ICC3125-1</t>
-  </si>
-  <si>
-    <t>ICS2123-2</t>
-  </si>
-  <si>
-    <t>ICC2414-1</t>
-  </si>
-  <si>
-    <t>ICE2630-1</t>
-  </si>
-  <si>
-    <t>IIC2173-1</t>
-  </si>
-  <si>
-    <t>IIC3113-2</t>
-  </si>
-  <si>
-    <t>ICE2114-1</t>
-  </si>
-  <si>
-    <t>ICH3384-1</t>
-  </si>
-  <si>
-    <t>ICE2006-1</t>
-  </si>
-  <si>
-    <t>IIC2113-2</t>
-  </si>
-  <si>
-    <t>IIC2713-1</t>
-  </si>
-  <si>
-    <t>IIC3113-1</t>
-  </si>
-  <si>
-    <t>IIQ223Q-1</t>
-  </si>
-  <si>
-    <t>ICT2233-1</t>
-  </si>
-  <si>
-    <t>IIC2764-1</t>
-  </si>
-  <si>
-    <t>IIQ3652-1</t>
-  </si>
-  <si>
-    <t>IIC2143-2</t>
-  </si>
-  <si>
-    <t>ICS2563-2</t>
-  </si>
-  <si>
-    <t>IIC3633-1</t>
-  </si>
-  <si>
-    <t>ICS3143-1</t>
-  </si>
-  <si>
-    <t>IEE3794-1</t>
-  </si>
-  <si>
-    <t>ICS3413-1</t>
-  </si>
-  <si>
-    <t>ICH3712-1</t>
-  </si>
-  <si>
-    <t>ICH2304-1</t>
-  </si>
-  <si>
-    <t>ICE2022-1</t>
-  </si>
-  <si>
-    <t>ICT3283-1</t>
-  </si>
-  <si>
-    <t>IIC2143-1</t>
-  </si>
-  <si>
-    <t>IIQ3651-1</t>
-  </si>
-  <si>
-    <t>ICS2123-4</t>
-  </si>
-  <si>
-    <t>ICS3313-1</t>
-  </si>
-  <si>
-    <t>IBM2101-1</t>
-  </si>
-  <si>
-    <t>ICM3233-1</t>
-  </si>
-  <si>
-    <t>ICH3710-1</t>
-  </si>
-  <si>
-    <t>IEE3383-1</t>
-  </si>
-  <si>
-    <t>ICM2213-1</t>
-  </si>
-  <si>
-    <t>IMM2013-1</t>
-  </si>
-  <si>
-    <t>ICC2204-1</t>
-  </si>
-  <si>
-    <t>ICE3543-1</t>
-  </si>
-  <si>
-    <t>IEE2113-1</t>
-  </si>
-  <si>
-    <t>IMM2043-1</t>
-  </si>
-  <si>
-    <t>ICM3920-1</t>
-  </si>
-  <si>
-    <t>ICE3433-1</t>
-  </si>
-  <si>
-    <t>ICM2803-1</t>
-  </si>
-  <si>
-    <t>ICC2304-1</t>
-  </si>
-  <si>
-    <t>IIC2713-3</t>
-  </si>
-  <si>
-    <t>IEE3682-1</t>
-  </si>
-  <si>
-    <t>IEE3243-1</t>
-  </si>
-  <si>
-    <t>IEE2713-1</t>
-  </si>
-  <si>
-    <t>ICT3435-1</t>
-  </si>
-  <si>
-    <t>ICH3390-1</t>
-  </si>
-  <si>
-    <t>IMT2112-1</t>
-  </si>
-  <si>
-    <t>ICH3564-1</t>
-  </si>
-  <si>
-    <t>ICC3244-1</t>
-  </si>
-  <si>
-    <t>ICE2025-1</t>
-  </si>
-  <si>
-    <t>ICH2304-2</t>
-  </si>
-  <si>
-    <t>ICS2123-3</t>
-  </si>
-  <si>
-    <t>IIQ3863-1</t>
-  </si>
-  <si>
-    <t>ICE2135-1</t>
-  </si>
-  <si>
-    <t>ICE2623-1</t>
-  </si>
-  <si>
-    <t>IIC2713-2</t>
-  </si>
-  <si>
-    <t>ICE2029-1</t>
-  </si>
-  <si>
-    <t>ICE2413-1</t>
-  </si>
-  <si>
-    <t>ICM2022-1</t>
-  </si>
-  <si>
-    <t>IIC2733-1</t>
-  </si>
-  <si>
-    <t>IIQ2133-1</t>
-  </si>
-  <si>
-    <t>ICC2105-1</t>
-  </si>
-  <si>
-    <t>IMM2053-1</t>
-  </si>
-  <si>
-    <t>IIC2333-2</t>
-  </si>
-  <si>
-    <t>IIC2333-1</t>
-  </si>
-  <si>
-    <t>ICH2394-1</t>
-  </si>
-  <si>
-    <t>IEE2313-1</t>
+    <t>ICT3443-1</t>
+  </si>
+  <si>
+    <t>ICM2003-1</t>
+  </si>
+  <si>
+    <t>IMM2003-1</t>
+  </si>
+  <si>
+    <t>IIC3692-1</t>
+  </si>
+  <si>
+    <t>IBM1005-1</t>
+  </si>
+  <si>
+    <t>IIQ3793-1</t>
+  </si>
+  <si>
+    <t>IEE3694-1</t>
+  </si>
+  <si>
+    <t>IIC3752-1</t>
+  </si>
+  <si>
+    <t>IIC2523-1</t>
+  </si>
+  <si>
+    <t>ICS3105-1</t>
+  </si>
+  <si>
+    <t>ING2031-1</t>
+  </si>
+  <si>
+    <t>ICC2454-1</t>
+  </si>
+  <si>
+    <t>ICM3235-1</t>
+  </si>
+  <si>
+    <t>ICE2833-1</t>
+  </si>
+  <si>
+    <t>IIC2433-1</t>
+  </si>
+  <si>
+    <t>IIC3810-1</t>
+  </si>
+  <si>
+    <t>ICC3464-1</t>
+  </si>
+  <si>
+    <t>IBM2123-1</t>
+  </si>
+  <si>
+    <t>IEE1100-1</t>
+  </si>
+  <si>
+    <t>IIC3103-1</t>
+  </si>
+  <si>
+    <t>ICC3454-1</t>
+  </si>
+  <si>
+    <t>IIC2173-2</t>
   </si>
   <si>
     <t>IBM2222-1</t>
   </si>
   <si>
-    <t>ICE2880-1</t>
-  </si>
-  <si>
-    <t>IIC3743-1</t>
-  </si>
-  <si>
-    <t>ICE2880-2</t>
-  </si>
-  <si>
-    <t>ICM2403-1</t>
-  </si>
-  <si>
-    <t>IEE1533-1</t>
-  </si>
-  <si>
-    <t>ICT3333-1</t>
-  </si>
-  <si>
-    <t>IIC2133-3</t>
-  </si>
-  <si>
-    <t>ICH2114-1</t>
-  </si>
-  <si>
-    <t>ICS2523-4</t>
-  </si>
-  <si>
-    <t>ICM3323-1</t>
-  </si>
-  <si>
-    <t>ICE3623-1</t>
-  </si>
-  <si>
-    <t>ICT2223-1</t>
-  </si>
-  <si>
-    <t>IIC2133-2</t>
-  </si>
-  <si>
-    <t>IMM3503-1</t>
-  </si>
-  <si>
-    <t>IBM2012-1</t>
-  </si>
-  <si>
-    <t>ICE3783-1</t>
-  </si>
-  <si>
-    <t>IIQ2043-1</t>
-  </si>
-  <si>
-    <t>IIC2133-1</t>
-  </si>
-  <si>
-    <t>IIQ3853-1</t>
-  </si>
-  <si>
-    <t>IIQ2313-1</t>
-  </si>
-  <si>
-    <t>ICH3341-1</t>
-  </si>
-  <si>
-    <t>IIQ3752-1</t>
-  </si>
-  <si>
-    <t>IEE2473-1</t>
-  </si>
-  <si>
-    <t>ICE2024-1</t>
-  </si>
-  <si>
-    <t>IEE2273-1</t>
-  </si>
-  <si>
-    <t>IEE1100-1</t>
-  </si>
-  <si>
-    <t>IIC3103-1</t>
-  </si>
-  <si>
-    <t>ICC3454-1</t>
-  </si>
-  <si>
-    <t>IIC2173-2</t>
-  </si>
-  <si>
-    <t>ICH3010-1</t>
-  </si>
-  <si>
-    <t>IEE2273-2</t>
-  </si>
-  <si>
-    <t>IIQ2693-1</t>
-  </si>
-  <si>
-    <t>IIC3810-1</t>
-  </si>
-  <si>
-    <t>ICC3464-1</t>
-  </si>
-  <si>
-    <t>IBM2123-1</t>
-  </si>
-  <si>
-    <t>IIC2433-1</t>
-  </si>
-  <si>
-    <t>ICT3443-1</t>
-  </si>
-  <si>
-    <t>ICE2833-1</t>
-  </si>
-  <si>
-    <t>IIQ2603-1</t>
-  </si>
-  <si>
-    <t>IEE2544-1</t>
-  </si>
-  <si>
-    <t>ICM2223-1</t>
-  </si>
-  <si>
-    <t>IIQ3843-1</t>
-  </si>
-  <si>
-    <t>ICT3354-1</t>
-  </si>
-  <si>
-    <t>IRB2001-1</t>
-  </si>
-  <si>
-    <t>IIC2143-3</t>
-  </si>
-  <si>
-    <t>IMT2565-1</t>
-  </si>
-  <si>
-    <t>IMT3120-1</t>
-  </si>
-  <si>
-    <t>ICS2523-3</t>
-  </si>
-  <si>
-    <t>IEE3313-1</t>
-  </si>
-  <si>
-    <t>IMM1003-1</t>
-  </si>
-  <si>
-    <t>ICM3252-1</t>
-  </si>
-  <si>
-    <t>ICE2604-1</t>
-  </si>
-  <si>
-    <t>IIC3533-1</t>
-  </si>
-  <si>
-    <t>ICH2604-1</t>
-  </si>
-  <si>
-    <t>ICE3743-1</t>
-  </si>
-  <si>
-    <t>ICE2683-1</t>
-  </si>
-  <si>
-    <t>ICS2121-1</t>
-  </si>
-  <si>
-    <t>ICC2105-2</t>
-  </si>
-  <si>
-    <t>IIC2113-1</t>
-  </si>
-  <si>
-    <t>ICM3255-1</t>
-  </si>
-  <si>
-    <t>ICM3553-1</t>
-  </si>
-  <si>
-    <t>IMM3053-1</t>
-  </si>
-  <si>
-    <t>IIQ2003-1</t>
-  </si>
-  <si>
-    <t>IMM2023-1</t>
-  </si>
-  <si>
-    <t>ICC2514-1</t>
-  </si>
-  <si>
-    <t>ICH3800-1</t>
-  </si>
-  <si>
-    <t>ICE2614-1</t>
-  </si>
-  <si>
-    <t>IEE3610-1</t>
-  </si>
-  <si>
-    <t>ICS2123-1</t>
-  </si>
-  <si>
-    <t>ICS2563-1</t>
-  </si>
-  <si>
-    <t>IEE2213-1</t>
-  </si>
-  <si>
-    <t>ICC2424-1</t>
-  </si>
-  <si>
-    <t>ICC3272-1</t>
-  </si>
-  <si>
-    <t>IIC2733-2</t>
-  </si>
-  <si>
-    <t>ICM2313-1</t>
-  </si>
-  <si>
-    <t>ICE3723-1</t>
-  </si>
-  <si>
-    <t>ICT2904-1</t>
-  </si>
-  <si>
-    <t>IEE2123-1</t>
-  </si>
-  <si>
-    <t>IEE3254-1</t>
-  </si>
-  <si>
-    <t>IIC2613-1</t>
-  </si>
-  <si>
-    <t>ICT3103-1</t>
-  </si>
-  <si>
-    <t>IEE2183-1</t>
-  </si>
-  <si>
-    <t>IEE2683-2</t>
-  </si>
-  <si>
-    <t>ING102G-1</t>
-  </si>
-  <si>
-    <t>ICM3382-1</t>
-  </si>
-  <si>
-    <t>IEE2103-1</t>
-  </si>
-  <si>
-    <t>ICE2403-1</t>
-  </si>
-  <si>
-    <t>IEE2413-1</t>
-  </si>
-  <si>
-    <t>ICE2313-1</t>
-  </si>
-  <si>
-    <t>IEE2613-1</t>
-  </si>
-  <si>
-    <t>IMM2003-1</t>
-  </si>
-  <si>
-    <t>IIC2523-1</t>
-  </si>
-  <si>
-    <t>ICS3105-1</t>
-  </si>
-  <si>
-    <t>ICM2003-1</t>
-  </si>
-  <si>
-    <t>IBM1005-1</t>
-  </si>
-  <si>
-    <t>IIC3752-1</t>
-  </si>
-  <si>
-    <t>IIC3692-1</t>
-  </si>
-  <si>
-    <t>ING2031-1</t>
-  </si>
-  <si>
-    <t>IEE3694-1</t>
-  </si>
-  <si>
-    <t>ICC2454-1</t>
-  </si>
-  <si>
-    <t>ICM3235-1</t>
-  </si>
-  <si>
-    <t>IIQ3793-1</t>
-  </si>
-  <si>
-    <t>IEE2683-1</t>
-  </si>
-  <si>
-    <t>IIC3675-1</t>
-  </si>
-  <si>
-    <t>ICM3253-1</t>
-  </si>
-  <si>
-    <t>ING101G-1</t>
-  </si>
-  <si>
-    <t>ICM2028-1</t>
-  </si>
-  <si>
-    <t>IIC2283-1</t>
-  </si>
-  <si>
-    <t>IMT3810-1</t>
+    <t>ICS3742-1</t>
   </si>
   <si>
     <t>ICE2027-1</t>
   </si>
   <si>
     <t>IIC3686-1</t>
-  </si>
-  <si>
-    <t>ICS3742-1</t>
   </si>
   <si>
     <t>IEE3393-1</t>
